--- a/maven1/zalora project.xlsx
+++ b/maven1/zalora project.xlsx
@@ -3,12 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thirukkumaran\OneDrive\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67FF5A7-B673-49F2-B44F-38184502DDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D5EE7D99-9B41-4714-A49C-09443C346704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +11,7 @@
     <sheet name="loginsheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>username</t>
   </si>
@@ -37,6 +33,9 @@
   </si>
   <si>
     <t>12345bharani</t>
+  </si>
+  <si>
+    <t>bharani10a@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -365,9 +364,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -390,9 +391,18 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{EE7169AC-C9E8-4B46-B842-2E9125020EF4}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{D3C44BF8-D40E-4E15-AAC5-2DA83F689AED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/maven1/zalora project.xlsx
+++ b/maven1/zalora project.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D5EE7D99-9B41-4714-A49C-09443C346704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thirukkumaran\OneDrive\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67FF5A7-B673-49F2-B44F-38184502DDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +16,6 @@
     <sheet name="loginsheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
@@ -33,9 +37,6 @@
   </si>
   <si>
     <t>12345bharani</t>
-  </si>
-  <si>
-    <t>bharani10a@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -364,11 +365,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -391,18 +390,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{EE7169AC-C9E8-4B46-B842-2E9125020EF4}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{D3C44BF8-D40E-4E15-AAC5-2DA83F689AED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
